--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_552.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_552.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d82304-Reviews-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Sylmar.h57401.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_552.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_552.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,779 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r564120730-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>82304</t>
+  </si>
+  <si>
+    <t>564120730</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Scary Place and Bugs</t>
+  </si>
+  <si>
+    <t>For the price this was not worth it. Very scary place, very noisy and non smoking rooms fill up with smoke. Front desk told me they could not help but gave ne a national number to call. I called the Guest Relations number and was told to deal with the front desk. Front desk refused to talk to me. I ended up the next day having to go to the Emergency Room because of bug bites on my legs, it seems that the room I was in was infested with bed bugs. Called guest relations again but was treated with indifference, they didn't even ask what room I was in or what the cost of my medical treatment was. I was told that this is not normal and I should not let one bad experience sour my Motel 6 impression. I will never stay at a Motel 6 again, got the run around and consistent customer service. The front desk told me that I was free to leave at any time but no refunds would be given.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Los Angeles Sylmar, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>For the price this was not worth it. Very scary place, very noisy and non smoking rooms fill up with smoke. Front desk told me they could not help but gave ne a national number to call. I called the Guest Relations number and was told to deal with the front desk. Front desk refused to talk to me. I ended up the next day having to go to the Emergency Room because of bug bites on my legs, it seems that the room I was in was infested with bed bugs. Called guest relations again but was treated with indifference, they didn't even ask what room I was in or what the cost of my medical treatment was. I was told that this is not normal and I should not let one bad experience sour my Motel 6 impression. I will never stay at a Motel 6 again, got the run around and consistent customer service. The front desk told me that I was free to leave at any time but no refunds would be given.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r561541483-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>561541483</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>It all adds up to terrible!!!</t>
+  </si>
+  <si>
+    <t>The Motel is fenced and there are two armed security guards at the gate. There are postings in front of the Motel about a dog that was stolen by the Motel staff out of a room and Motel 6 did nothing about the situation. I should have taken this as a bad omen. The front desk was like checking in at a courthouse or boarding a plane. The room was dirty, No light bulbs in any of the fixtures, only light was in the bathroom. The tank to the toilet was full of French fries (yes, French fries) and whenever you flushed the toilet the bowl filled up with them. Mattress, bedding and towels are very old and run down. Could almost see through the towels. Water pressure in shower was a trickle (did have hot water though). Security pounded on door at 9:00 PM asking for an Evelyn, wanted to see inside he room (was asleep and in underwear). I have stayed in some bad hotel/motel's before and this makes my top 3. They also make you pay for Wi-Fi.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Los Angeles Sylmar, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>The Motel is fenced and there are two armed security guards at the gate. There are postings in front of the Motel about a dog that was stolen by the Motel staff out of a room and Motel 6 did nothing about the situation. I should have taken this as a bad omen. The front desk was like checking in at a courthouse or boarding a plane. The room was dirty, No light bulbs in any of the fixtures, only light was in the bathroom. The tank to the toilet was full of French fries (yes, French fries) and whenever you flushed the toilet the bowl filled up with them. Mattress, bedding and towels are very old and run down. Could almost see through the towels. Water pressure in shower was a trickle (did have hot water though). Security pounded on door at 9:00 PM asking for an Evelyn, wanted to see inside he room (was asleep and in underwear). I have stayed in some bad hotel/motel's before and this makes my top 3. They also make you pay for Wi-Fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r554452605-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>554452605</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Nothing Good</t>
+  </si>
+  <si>
+    <t>This place feels like a prison....I know because I worked at one!1.  Go through the security check where they will ask you everything about your first born, past life, etc.2.  Go through the background check at the front desk where you have the same questions.3.  You have sign and agree to the "house rules" or you won't get a key.4.  Only one entrance and exit (only through the security entrance)5.  You will be questioned by security every time you go in and out.6.  You have to pay for wifi (even McDonalds is free now days!)7.  Dog feces throughout the facility8.  Freeway road noise 24/7MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Los Angeles Sylmar, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>This place feels like a prison....I know because I worked at one!1.  Go through the security check where they will ask you everything about your first born, past life, etc.2.  Go through the background check at the front desk where you have the same questions.3.  You have sign and agree to the "house rules" or you won't get a key.4.  Only one entrance and exit (only through the security entrance)5.  You will be questioned by security every time you go in and out.6.  You have to pay for wifi (even McDonalds is free now days!)7.  Dog feces throughout the facility8.  Freeway road noise 24/7More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r536877840-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>536877840</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Be aware!</t>
+  </si>
+  <si>
+    <t>Multiple armed guards on the entrance and roaming the grounds.   An air conditioner so noisy it would wake a hibernating bear.   Shower only warm, not hot and very creaky bedsprings. Be aware before you commit, I wouldn't ever come back.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r533533318-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>533533318</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Clean Room</t>
+  </si>
+  <si>
+    <t>Read the 2016 and early 2017 negative reviews; management must have listened and corrected the complaints. Needed to stay in the area and found this to be the one with most descent price. Made reservation and few hours later checked in. I was surprised at the blocked entrance and providing reservation name with guard at the gate. But there was no problem there, he checked, confirmed and let us drive in. Very polite and business like. Found few young men working the check in desk. All very well groomed and polite. The WiFi is only available when one pays for it. Found the room small but 2 double beds with clean sheets and towels and working (limited channels) television. Complimentary coffee in the morning can be found in the lobby. Denny’s at walking distance. Good, clean place if sleep and shower is all that’s needed. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Read the 2016 and early 2017 negative reviews; management must have listened and corrected the complaints. Needed to stay in the area and found this to be the one with most descent price. Made reservation and few hours later checked in. I was surprised at the blocked entrance and providing reservation name with guard at the gate. But there was no problem there, he checked, confirmed and let us drive in. Very polite and business like. Found few young men working the check in desk. All very well groomed and polite. The WiFi is only available when one pays for it. Found the room small but 2 double beds with clean sheets and towels and working (limited channels) television. Complimentary coffee in the morning can be found in the lobby. Denny’s at walking distance. Good, clean place if sleep and shower is all that’s needed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r510322174-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>510322174</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>If you are looking for a clean, secure place to sleep, this is it. Also, The staff is corteous and the motel is near a couple of restaurants and a gas station.  The swiming pool is well maintained and there is plenty of parking.  However, there is no microwave or refrigerator in the rooms, bring your own toiletries as the motel only provides bars of soap. The room is big enough to sleep 4 people, 2 adults and 2 kids.  Again the rooms are small but clean and the location is super close to six flags so if you will be spending your day at the park and you only need a place to sleep then this is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>If you are looking for a clean, secure place to sleep, this is it. Also, The staff is corteous and the motel is near a couple of restaurants and a gas station.  The swiming pool is well maintained and there is plenty of parking.  However, there is no microwave or refrigerator in the rooms, bring your own toiletries as the motel only provides bars of soap. The room is big enough to sleep 4 people, 2 adults and 2 kids.  Again the rooms are small but clean and the location is super close to six flags so if you will be spending your day at the park and you only need a place to sleep then this is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r479631038-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>479631038</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Poor Management Misrepresentation of Amenities</t>
+  </si>
+  <si>
+    <t>I would not recommend this Hotel! Amenities which are listed as Free are Not Free!! A daily charge for WiFi, Poor Water Pressure, extremely small rooms is just the beginning. Arrogant night clerk with an attitude! This Motel 6 has to be the worst!   Brochures and Posted Ads are fictitious!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Los Angeles Sylmar, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I would not recommend this Hotel! Amenities which are listed as Free are Not Free!! A daily charge for WiFi, Poor Water Pressure, extremely small rooms is just the beginning. Arrogant night clerk with an attitude! This Motel 6 has to be the worst!   Brochures and Posted Ads are fictitious!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r467708515-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>467708515</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>A quick getaway</t>
+  </si>
+  <si>
+    <t>Customer service was great but the room was small, floor was not properly swept or mopped blankets had spots on them , they charge extra for two people to be in a room smh, the heat did not work in my room and the bed was not comfortable,  never again will I stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Customer service was great but the room was small, floor was not properly swept or mopped blankets had spots on them , they charge extra for two people to be in a room smh, the heat did not work in my room and the bed was not comfortable,  never again will I stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r435884646-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>435884646</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Nice and Friendly</t>
+  </si>
+  <si>
+    <t>The motel was full upon arrival on a weekend.  A lot of activity.  Diverse crowd.  There is a security guard that patrols the parking lot, good or bad?  It was a bit noisy but simmered down at a reasonable hour. Room was plain and clean.  Denny's just down from motel.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r428990082-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>428990082</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>An acceptable place to stay</t>
+  </si>
+  <si>
+    <t>This is a Motel 6. IT is what it is. As Motel 6 units go, this was more on the nicer side. Clean. Decent Pool. Close to attractions. Reasonably priced compared to other area hotels. It was alright. A place to stay during a visit.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r413992488-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>413992488</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Quick and cheap place to stay</t>
+  </si>
+  <si>
+    <t>I stayed at this motel from July 24-29, 2016.
+This Motel 6 is in Sylmar, and located right off the Interstate-5, which is convenient. The motel is located in a run-down area, so it's quite intimating to walk outside at night. There are nearby places such as: Denny's, McDonald's, Chevron, and Mobil gas stations--all are walking distance. 
+The only time I walked outside at night was, to Denny's--the closest place to the motel. The only reason why I decided to walk, was because I saw a large group of people walking there, so I hurriedly and followed them.
+I chose a non-smoking room and was given the first floor non-smoking room. When I first arrived, the room was clean, but could have been cleaner. There was a foul odor upon entering the room and especially the restroom. I had to to a Target run, to buy some glade and lighten up the odor for stay here. There are no refrigerator or microwave. So you get what you pay for...
+There is daily house keeping. There is no free WIFI. You have to purchase WIFI. There are two options, which ranges from $2.99 to $5.99 per day. This options is applied to each electronic. So if you want wifi for both your phone and laptop, then it's going to cost you twice the price.
+I got the $2.99 WIFI for both my both and laptop so it totaled to $6.00. You...I stayed at this motel from July 24-29, 2016.This Motel 6 is in Sylmar, and located right off the Interstate-5, which is convenient. The motel is located in a run-down area, so it's quite intimating to walk outside at night. There are nearby places such as: Denny's, McDonald's, Chevron, and Mobil gas stations--all are walking distance. The only time I walked outside at night was, to Denny's--the closest place to the motel. The only reason why I decided to walk, was because I saw a large group of people walking there, so I hurriedly and followed them.I chose a non-smoking room and was given the first floor non-smoking room. When I first arrived, the room was clean, but could have been cleaner. There was a foul odor upon entering the room and especially the restroom. I had to to a Target run, to buy some glade and lighten up the odor for stay here. There are no refrigerator or microwave. So you get what you pay for...There is daily house keeping. There is no free WIFI. You have to purchase WIFI. There are two options, which ranges from $2.99 to $5.99 per day. This options is applied to each electronic. So if you want wifi for both your phone and laptop, then it's going to cost you twice the price.I got the $2.99 WIFI for both my both and laptop so it totaled to $6.00. You multiple $6.00 by 5 and that's $30.00 for my one week stay. I had to buy WIFI every single day, since I didn't want to overuse my data. I felt safe staying here, when I noticed that firefighters were also staying here. I saw their fire trucks parked outside at night. I also saw them checking-in, as I was in line to purchase my daily WIFI. There was a fire near this motel, which you could see if you stand outside. All in all, I would say only stay at this place only if you have absolutely no where else to stay. I only stayed here because I was on a budget, and it was closer to my designated location. If you are able to afford a better place than Motel 6, then by all means go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this motel from July 24-29, 2016.
+This Motel 6 is in Sylmar, and located right off the Interstate-5, which is convenient. The motel is located in a run-down area, so it's quite intimating to walk outside at night. There are nearby places such as: Denny's, McDonald's, Chevron, and Mobil gas stations--all are walking distance. 
+The only time I walked outside at night was, to Denny's--the closest place to the motel. The only reason why I decided to walk, was because I saw a large group of people walking there, so I hurriedly and followed them.
+I chose a non-smoking room and was given the first floor non-smoking room. When I first arrived, the room was clean, but could have been cleaner. There was a foul odor upon entering the room and especially the restroom. I had to to a Target run, to buy some glade and lighten up the odor for stay here. There are no refrigerator or microwave. So you get what you pay for...
+There is daily house keeping. There is no free WIFI. You have to purchase WIFI. There are two options, which ranges from $2.99 to $5.99 per day. This options is applied to each electronic. So if you want wifi for both your phone and laptop, then it's going to cost you twice the price.
+I got the $2.99 WIFI for both my both and laptop so it totaled to $6.00. You...I stayed at this motel from July 24-29, 2016.This Motel 6 is in Sylmar, and located right off the Interstate-5, which is convenient. The motel is located in a run-down area, so it's quite intimating to walk outside at night. There are nearby places such as: Denny's, McDonald's, Chevron, and Mobil gas stations--all are walking distance. The only time I walked outside at night was, to Denny's--the closest place to the motel. The only reason why I decided to walk, was because I saw a large group of people walking there, so I hurriedly and followed them.I chose a non-smoking room and was given the first floor non-smoking room. When I first arrived, the room was clean, but could have been cleaner. There was a foul odor upon entering the room and especially the restroom. I had to to a Target run, to buy some glade and lighten up the odor for stay here. There are no refrigerator or microwave. So you get what you pay for...There is daily house keeping. There is no free WIFI. You have to purchase WIFI. There are two options, which ranges from $2.99 to $5.99 per day. This options is applied to each electronic. So if you want wifi for both your phone and laptop, then it's going to cost you twice the price.I got the $2.99 WIFI for both my both and laptop so it totaled to $6.00. You multiple $6.00 by 5 and that's $30.00 for my one week stay. I had to buy WIFI every single day, since I didn't want to overuse my data. I felt safe staying here, when I noticed that firefighters were also staying here. I saw their fire trucks parked outside at night. I also saw them checking-in, as I was in line to purchase my daily WIFI. There was a fire near this motel, which you could see if you stand outside. All in all, I would say only stay at this place only if you have absolutely no where else to stay. I only stayed here because I was on a budget, and it was closer to my designated location. If you are able to afford a better place than Motel 6, then by all means go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r407288442-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>407288442</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Absolutely horrible. Never again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My mom and I stayed here 8/17.  Horrible experience. Burn marks on comforters, heavily stained comforter, key left in room by previous guest, wifi stopped working. Complained, received only $10 back. Called Motel6, they called hotel.  Hotel lied. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r378605694-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>378605694</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Roach</t>
+  </si>
+  <si>
+    <t>I always stay at Motel 6 as i know the quality is high all across the board.  However, my experience at the Sylmar CA Motel 6 on 31-May-2016 was appalling.  There are 2 things I will not tolerate, #1 is bed bugs, #2 is roaches.  I found a roach crawling this morning and smashed it on the door.There are things that are beyond the control of the hotel such as the woman last night upstairs shouting at top of her lungs upstairs, the obnoxious passerby my window that was extremely loud, and the noise from the other room through the double inside doors.  But bugs are absolutely not tolerated in a chain that I know has a high standard at all locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I always stay at Motel 6 as i know the quality is high all across the board.  However, my experience at the Sylmar CA Motel 6 on 31-May-2016 was appalling.  There are 2 things I will not tolerate, #1 is bed bugs, #2 is roaches.  I found a roach crawling this morning and smashed it on the door.There are things that are beyond the control of the hotel such as the woman last night upstairs shouting at top of her lungs upstairs, the obnoxious passerby my window that was extremely loud, and the noise from the other room through the double inside doors.  But bugs are absolutely not tolerated in a chain that I know has a high standard at all locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r358692002-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>358692002</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Not a dump but bare minimum hotel</t>
+  </si>
+  <si>
+    <t>The room wasn't terrible, but includes pretty much nothing. It's trying to be an upscale room with wood floors and more hip furnishings. There is no hair dryer on site, no fridge in the rooms, parking is free, you have to pay per day for the internet, free coffee in the am, washer/dryer on site. The water pressure is crap, but if you take the shower head off it's greatly improved. Just an expensive room to stay in. The facility is the biggest I've seen, and inside a fenced in area. They do require a driver's license of everyone in the room, which is California standards, and need the license plate of your car. The interactions of the staff were fairly decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The room wasn't terrible, but includes pretty much nothing. It's trying to be an upscale room with wood floors and more hip furnishings. There is no hair dryer on site, no fridge in the rooms, parking is free, you have to pay per day for the internet, free coffee in the am, washer/dryer on site. The water pressure is crap, but if you take the shower head off it's greatly improved. Just an expensive room to stay in. The facility is the biggest I've seen, and inside a fenced in area. They do require a driver's license of everyone in the room, which is California standards, and need the license plate of your car. The interactions of the staff were fairly decent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r333276702-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>333276702</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Nice weekend getaway</t>
+  </si>
+  <si>
+    <t>We've been coming here for years, good prices, close to freeway,gas station and places to eat nice friendly staff. Rooms have been remodeled so no more carpets or bad allergies..quiet area,best place to check in with or without family.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r304523849-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>304523849</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Such a good time.</t>
+  </si>
+  <si>
+    <t>I come here often with my husband to get away from everything. Every one is very nice and so clean! Walking distance from Denny's and 2 gas stations as well as perfect access to the freeways. Cannot wait to plan our next getaway here.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r288052117-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>288052117</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>The Bare Minimum Motel</t>
+  </si>
+  <si>
+    <t>The Motel 6 has renovated rooms with somewhat clean sheets/beddings, flat-screen TV, &amp; clean towels; however, No fridge, No iron, No microwave and No Wifi. The neighborhood is SUPER sketchy and ghetto. In order to avoid any unforseen robbery or mishap try going out during day light. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Los Angeles Sylmar, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>The Motel 6 has renovated rooms with somewhat clean sheets/beddings, flat-screen TV, &amp; clean towels; however, No fridge, No iron, No microwave and No Wifi. The neighborhood is SUPER sketchy and ghetto. In order to avoid any unforseen robbery or mishap try going out during day light. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r279648451-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>279648451</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>night stop</t>
+  </si>
+  <si>
+    <t>it is a well maintained facility, although it lacks of at least something for breakfast.......................................................................................................................</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r261070212-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>261070212</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Meh...</t>
+  </si>
+  <si>
+    <t>Tip for the management: Don't train new employees on Friday, Saturday or Sunday. You're just too busy for that and it slows down everyone and everything.Use fabric softener - it comes unscented! - because your towels are like sandpaper - 80 grit too. Inform the entire staff about late AARP checkout AND inform them of who has it so I don't get disturbed twice by housekeepers asking if I'm leaving or staying another day! Electric outlet in the bathroom didn't work...that means you're not checking things regularly. It's not the guest's responsibility to report things like that...it's yours to make sure everything works.Soda machine didn't work but that seems to be par for the course at most Motel 6.You need bigger showers...I've seen bigger and nicer ones in motor homes.Staff was friendly...I'll give you that. I wouldn't stay here more than one night and not even that if you can avoid it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Tip for the management: Don't train new employees on Friday, Saturday or Sunday. You're just too busy for that and it slows down everyone and everything.Use fabric softener - it comes unscented! - because your towels are like sandpaper - 80 grit too. Inform the entire staff about late AARP checkout AND inform them of who has it so I don't get disturbed twice by housekeepers asking if I'm leaving or staying another day! Electric outlet in the bathroom didn't work...that means you're not checking things regularly. It's not the guest's responsibility to report things like that...it's yours to make sure everything works.Soda machine didn't work but that seems to be par for the course at most Motel 6.You need bigger showers...I've seen bigger and nicer ones in motor homes.Staff was friendly...I'll give you that. I wouldn't stay here more than one night and not even that if you can avoid it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r246702533-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>246702533</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>KEEP DRIVING!!!  DO NOT STOP!!!</t>
+  </si>
+  <si>
+    <t>Staying at this motel is like trying to pick up poop by the clean end.  If you like foul smells, disgusting  tattered sheets and if you consider gobs of hair that is not youe own a bonus then this is the place for you!   Here's a helpful tip.  Just sleep in the grass along the freeway. It's probably cleaner.  But if you risk it, please make sure that your shots are up to date.  We stayed for 2 hours and couldn't handle it.  Gross.  Gross. Gross.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r230350747-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>230350747</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>We stayed for one night - the hotel is not is a very nice area, and there are homeless people roaming the parking lot.  The room was very small, with 2 double beds for 4 adults - and although we requested WIFI, we were told "We're out" - The room was clean, and in good condition, just very small for 4 people.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Los Angeles Sylmar, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>We stayed for one night - the hotel is not is a very nice area, and there are homeless people roaming the parking lot.  The room was very small, with 2 double beds for 4 adults - and although we requested WIFI, we were told "We're out" - The room was clean, and in good condition, just very small for 4 people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r208269081-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>208269081</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Nightmare experience</t>
+  </si>
+  <si>
+    <t>I spoke to a rep over the phone booked a room early in the week for the weekend. After driving for 8 hours I arrived and found someone botched up the reservation and gave away the non smoking rooms. I spoke to customer service who argued with me and said I HAD TO MAKE A SPECIAL REQUEST FOR "NO SMOKING" to get a no smoking room! Motel 6 is in the business of booking rooms. It's a pretty easy job, one that computers do. In this case they managed to complicate and bunge this process up. 
+Even though I have precious little ones we made a go of staying because it was LATE and the nearest motel with vacancy was roughly an hour away. The room reeked of smoke down to the very core. We had to leave the window open the entire night and even then we were sneezing and coughing the next morning. 
+We had to pack everything in the car to be considered for a non smoking room for the next night. 
+Be sure to make a special request for non smoking if you stay here or you might wind in a late night tragedy like me.
+The rooms are extremely tiny - the double beds butt up against the wall and windows and they charge for wifi. There is no carpet, or any frills.
+One would think the rooms would be extremely inexpensive because of this...I spoke to a rep over the phone booked a room early in the week for the weekend. After driving for 8 hours I arrived and found someone botched up the reservation and gave away the non smoking rooms. I spoke to customer service who argued with me and said I HAD TO MAKE A SPECIAL REQUEST FOR "NO SMOKING" to get a no smoking room! Motel 6 is in the business of booking rooms. It's a pretty easy job, one that computers do. In this case they managed to complicate and bunge this process up. Even though I have precious little ones we made a go of staying because it was LATE and the nearest motel with vacancy was roughly an hour away. The room reeked of smoke down to the very core. We had to leave the window open the entire night and even then we were sneezing and coughing the next morning. We had to pack everything in the car to be considered for a non smoking room for the next night. Be sure to make a special request for non smoking if you stay here or you might wind in a late night tragedy like me.The rooms are extremely tiny - the double beds butt up against the wall and windows and they charge for wifi. There is no carpet, or any frills.One would think the rooms would be extremely inexpensive because of this - guess again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I spoke to a rep over the phone booked a room early in the week for the weekend. After driving for 8 hours I arrived and found someone botched up the reservation and gave away the non smoking rooms. I spoke to customer service who argued with me and said I HAD TO MAKE A SPECIAL REQUEST FOR "NO SMOKING" to get a no smoking room! Motel 6 is in the business of booking rooms. It's a pretty easy job, one that computers do. In this case they managed to complicate and bunge this process up. 
+Even though I have precious little ones we made a go of staying because it was LATE and the nearest motel with vacancy was roughly an hour away. The room reeked of smoke down to the very core. We had to leave the window open the entire night and even then we were sneezing and coughing the next morning. 
+We had to pack everything in the car to be considered for a non smoking room for the next night. 
+Be sure to make a special request for non smoking if you stay here or you might wind in a late night tragedy like me.
+The rooms are extremely tiny - the double beds butt up against the wall and windows and they charge for wifi. There is no carpet, or any frills.
+One would think the rooms would be extremely inexpensive because of this...I spoke to a rep over the phone booked a room early in the week for the weekend. After driving for 8 hours I arrived and found someone botched up the reservation and gave away the non smoking rooms. I spoke to customer service who argued with me and said I HAD TO MAKE A SPECIAL REQUEST FOR "NO SMOKING" to get a no smoking room! Motel 6 is in the business of booking rooms. It's a pretty easy job, one that computers do. In this case they managed to complicate and bunge this process up. Even though I have precious little ones we made a go of staying because it was LATE and the nearest motel with vacancy was roughly an hour away. The room reeked of smoke down to the very core. We had to leave the window open the entire night and even then we were sneezing and coughing the next morning. We had to pack everything in the car to be considered for a non smoking room for the next night. Be sure to make a special request for non smoking if you stay here or you might wind in a late night tragedy like me.The rooms are extremely tiny - the double beds butt up against the wall and windows and they charge for wifi. There is no carpet, or any frills.One would think the rooms would be extremely inexpensive because of this - guess again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r186486592-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>186486592</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>Thanksgiving 2013; Family of 4</t>
+  </si>
+  <si>
+    <t>Family of 4 2 adults 12 and 10 year old kids. Location was about 10 miles south  of Six Flags Magic Mountain. 1 major hill to cross to get to and from the park. My Motel 6 comments--hotel appears to have recently been updated. Fresh paint. Staff was polite and security patrolling the grounds. Downside--you get what you pay for--Flat hard pillows, 2 wash clothes are all we were allowed on day 2 and 3 (there were 4 of us), while taking a shower the water would turn ICE cold, found a cock roach in the bathroom--Hubby killed and flushed it, room was hot, air/heat fan was loud and necessary to cool room at 3am I finally opened the window and door, IN NOVEMBER!!  Overall--We spent 8 nights in a different Motel 6 each night and in 6 different states on my families Grand Canyon vacation in March 2013. None of those locations were as uncomfortable as this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Family of 4 2 adults 12 and 10 year old kids. Location was about 10 miles south  of Six Flags Magic Mountain. 1 major hill to cross to get to and from the park. My Motel 6 comments--hotel appears to have recently been updated. Fresh paint. Staff was polite and security patrolling the grounds. Downside--you get what you pay for--Flat hard pillows, 2 wash clothes are all we were allowed on day 2 and 3 (there were 4 of us), while taking a shower the water would turn ICE cold, found a cock roach in the bathroom--Hubby killed and flushed it, room was hot, air/heat fan was loud and necessary to cool room at 3am I finally opened the window and door, IN NOVEMBER!!  Overall--We spent 8 nights in a different Motel 6 each night and in 6 different states on my families Grand Canyon vacation in March 2013. None of those locations were as uncomfortable as this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r184812978-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>184812978</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>Dumpy Hotel</t>
+  </si>
+  <si>
+    <t>I book this hotel last minute, therefore price is high, but you are not getting your money worth. No free wifi, nowaday, all the hotel better than this hotel grading are offering free wifi. Bed and mattress are not in good condition. I got a room with one double bed, but there supposed to have 2. However, they are will to change a room for us. Parking is free. With this quality, I won't paid more than US$40 per nite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r168860952-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>168860952</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Good Price for a night.</t>
+  </si>
+  <si>
+    <t>The room is clean. However my husband saw A bug, couldn't figure out where it came from or where it went to. The front desk staff are professional.  Next time passing through this area &amp; need a place to stay, I will check into this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r168567189-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>168567189</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>There was no fridge or microwave. But there is a pool and laundry facilities. The place is clean and the grounds lovely and well kept. The staff is very friendly. Pet friendly, too. Very pleasant stay and would stay there again.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r165783651-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>165783651</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>"Bugs, bugs, bugs</t>
+  </si>
+  <si>
+    <t>Do not ever stay in this hotel. The room had bugs and the customer service was horrible. I attempted to file a complaint with the corporate office against the manager on duty who was awful, and the cs guy at corporate was super nice, until he put me on hold and talked to the awful manager and then he was just as rude as she was. I understand supporting your staff but what the heck happened to true customer service. Customers come first at least in my customer service job they do. Don't stay here its not even worth the rate!!!!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r138153791-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>138153791</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>No complaints, considerably better than expected.</t>
+  </si>
+  <si>
+    <t>My brother and I ended up here on our way up from Buena Vista towards Six Flags Magic Mountain. It was a late night find thanks to McDonald's free Wifi just as I was about ready to pass out. Having read the reviews on here, expected the worst but couldn't fault it and ended up staying 5 nights in total and using this as our base for Six Flags, Universal, a self-driven tour of Greater LA and a stop-off before heading up Highway 1.
+Two clean, comfortable double beds in a recently redecorated bedroom with a good-sized shower-room and decent tv. Paid wifi internet ($3 for 24 hours) was quick and secure.
+Didn't use the pool, did hear that someone else had their car broken into on our first night (I believe they'd left a skateboard on the back seat) but we had no such problems. Upon arrival around midnight, there was a security guard based near the car-park entrance and so that was where we parked, with nothing left on show in the car: it's basic common sense and what I'd do anywhere.
+We did consider checking out and relocating a little closer to downtown for the last couple of nights, but in the end decided against it as we were so happy with the room and it was easier to drive another 10 - 15 minutes than risk checking in somewhere else and not being as happy. Safe...My brother and I ended up here on our way up from Buena Vista towards Six Flags Magic Mountain. It was a late night find thanks to McDonald's free Wifi just as I was about ready to pass out. Having read the reviews on here, expected the worst but couldn't fault it and ended up staying 5 nights in total and using this as our base for Six Flags, Universal, a self-driven tour of Greater LA and a stop-off before heading up Highway 1.Two clean, comfortable double beds in a recently redecorated bedroom with a good-sized shower-room and decent tv. Paid wifi internet ($3 for 24 hours) was quick and secure.Didn't use the pool, did hear that someone else had their car broken into on our first night (I believe they'd left a skateboard on the back seat) but we had no such problems. Upon arrival around midnight, there was a security guard based near the car-park entrance and so that was where we parked, with nothing left on show in the car: it's basic common sense and what I'd do anywhere.We did consider checking out and relocating a little closer to downtown for the last couple of nights, but in the end decided against it as we were so happy with the room and it was easier to drive another 10 - 15 minutes than risk checking in somewhere else and not being as happy. Safe to say, we'd stay there again if we were looking to visit the same areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My brother and I ended up here on our way up from Buena Vista towards Six Flags Magic Mountain. It was a late night find thanks to McDonald's free Wifi just as I was about ready to pass out. Having read the reviews on here, expected the worst but couldn't fault it and ended up staying 5 nights in total and using this as our base for Six Flags, Universal, a self-driven tour of Greater LA and a stop-off before heading up Highway 1.
+Two clean, comfortable double beds in a recently redecorated bedroom with a good-sized shower-room and decent tv. Paid wifi internet ($3 for 24 hours) was quick and secure.
+Didn't use the pool, did hear that someone else had their car broken into on our first night (I believe they'd left a skateboard on the back seat) but we had no such problems. Upon arrival around midnight, there was a security guard based near the car-park entrance and so that was where we parked, with nothing left on show in the car: it's basic common sense and what I'd do anywhere.
+We did consider checking out and relocating a little closer to downtown for the last couple of nights, but in the end decided against it as we were so happy with the room and it was easier to drive another 10 - 15 minutes than risk checking in somewhere else and not being as happy. Safe...My brother and I ended up here on our way up from Buena Vista towards Six Flags Magic Mountain. It was a late night find thanks to McDonald's free Wifi just as I was about ready to pass out. Having read the reviews on here, expected the worst but couldn't fault it and ended up staying 5 nights in total and using this as our base for Six Flags, Universal, a self-driven tour of Greater LA and a stop-off before heading up Highway 1.Two clean, comfortable double beds in a recently redecorated bedroom with a good-sized shower-room and decent tv. Paid wifi internet ($3 for 24 hours) was quick and secure.Didn't use the pool, did hear that someone else had their car broken into on our first night (I believe they'd left a skateboard on the back seat) but we had no such problems. Upon arrival around midnight, there was a security guard based near the car-park entrance and so that was where we parked, with nothing left on show in the car: it's basic common sense and what I'd do anywhere.We did consider checking out and relocating a little closer to downtown for the last couple of nights, but in the end decided against it as we were so happy with the room and it was easier to drive another 10 - 15 minutes than risk checking in somewhere else and not being as happy. Safe to say, we'd stay there again if we were looking to visit the same areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r134394503-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134394503</t>
+  </si>
+  <si>
+    <t>07/14/2012</t>
+  </si>
+  <si>
+    <t>Bed bugs galore!!!!!</t>
+  </si>
+  <si>
+    <t>This is my second review on this motelThe reason is that after the first reviewI was still in the roomBut the longer my family stayed there the more we itched   So I decided to go out to the car and get my high intensity flash light so I could look around  at the mattress after holding the light for a whileA whole bunch of little clear bugs started to scurrie around And yes of course  I grabbed my family and stuff, got a refund and leftRoom 114</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r134326123-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134326123</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Yikes cheap room</t>
+  </si>
+  <si>
+    <t>Cockroach was a small oneOnly two small towels for three peopleSmall room I think I'll pay a little more next time No wonder it's the only vacancy I could find</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r112367885-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>112367885</t>
+  </si>
+  <si>
+    <t>06/09/2011</t>
+  </si>
+  <si>
+    <t>I kinda feel sorry for these guys...</t>
+  </si>
+  <si>
+    <t>Considering the neighborhood problems, this motel is not bad.  You can tell that they are trying. The motel is surrounded by a chain-link fence, and there is a security guard on duty at night.  When I saw the disclaimers on the rental agreement, I asked the clerk what sorts of things went on there.  He shrugged and gave me a telling look. I said, "I probably don't want to know!" He said, "No, probably not.". (I was just too tired to look further for a better place. I got a room upstairs for more safety, and removed EVERYTHING from my car.)
+Pros:  clean room &amp; bath; typical small, thin towels, but they were clean; NO BUGS!! (we had fresh fruit from a fruit stand, and the juicy litter from same, and no nasty visitors to help us eat our bounty); attentive management; extra security; very low price for LA; free parking; loud a/c fan (believe me, you want this)
+Cons:  sketchy neighborhood; REALLY loud road noise (even with the loud a/c fan and a sound machine turned on high, I could still hear the 18 wheelers); separate fee for wi-fi (but unlike another reviewer, I had no problems with the connection); very small room (beds were against the walls.  Thank goodness there were no bugs!); no refrigerator; no counter space in bathroom.
+Bottom line:  I don't expect much from a Motel 6.  There wasn't anything about the room itself that...Considering the neighborhood problems, this motel is not bad.  You can tell that they are trying. The motel is surrounded by a chain-link fence, and there is a security guard on duty at night.  When I saw the disclaimers on the rental agreement, I asked the clerk what sorts of things went on there.  He shrugged and gave me a telling look. I said, "I probably don't want to know!" He said, "No, probably not.". (I was just too tired to look further for a better place. I got a room upstairs for more safety, and removed EVERYTHING from my car.)Pros:  clean room &amp; bath; typical small, thin towels, but they were clean; NO BUGS!! (we had fresh fruit from a fruit stand, and the juicy litter from same, and no nasty visitors to help us eat our bounty); attentive management; extra security; very low price for LA; free parking; loud a/c fan (believe me, you want this)Cons:  sketchy neighborhood; REALLY loud road noise (even with the loud a/c fan and a sound machine turned on high, I could still hear the 18 wheelers); separate fee for wi-fi (but unlike another reviewer, I had no problems with the connection); very small room (beds were against the walls.  Thank goodness there were no bugs!); no refrigerator; no counter space in bathroom.Bottom line:  I don't expect much from a Motel 6.  There wasn't anything about the room itself that would have been a deal breaker.  However, my main concern in renting a motel room is that it be safe for me, my family, and also my car.  Like I said, the management is definitely tryng to provide this, but I still would not stay here again. We used the wi-fi to find a better room in a better location, (for a whole lot more money!), and checked out the next day.     MoreShow less</t>
+  </si>
+  <si>
+    <t>Considering the neighborhood problems, this motel is not bad.  You can tell that they are trying. The motel is surrounded by a chain-link fence, and there is a security guard on duty at night.  When I saw the disclaimers on the rental agreement, I asked the clerk what sorts of things went on there.  He shrugged and gave me a telling look. I said, "I probably don't want to know!" He said, "No, probably not.". (I was just too tired to look further for a better place. I got a room upstairs for more safety, and removed EVERYTHING from my car.)
+Pros:  clean room &amp; bath; typical small, thin towels, but they were clean; NO BUGS!! (we had fresh fruit from a fruit stand, and the juicy litter from same, and no nasty visitors to help us eat our bounty); attentive management; extra security; very low price for LA; free parking; loud a/c fan (believe me, you want this)
+Cons:  sketchy neighborhood; REALLY loud road noise (even with the loud a/c fan and a sound machine turned on high, I could still hear the 18 wheelers); separate fee for wi-fi (but unlike another reviewer, I had no problems with the connection); very small room (beds were against the walls.  Thank goodness there were no bugs!); no refrigerator; no counter space in bathroom.
+Bottom line:  I don't expect much from a Motel 6.  There wasn't anything about the room itself that...Considering the neighborhood problems, this motel is not bad.  You can tell that they are trying. The motel is surrounded by a chain-link fence, and there is a security guard on duty at night.  When I saw the disclaimers on the rental agreement, I asked the clerk what sorts of things went on there.  He shrugged and gave me a telling look. I said, "I probably don't want to know!" He said, "No, probably not.". (I was just too tired to look further for a better place. I got a room upstairs for more safety, and removed EVERYTHING from my car.)Pros:  clean room &amp; bath; typical small, thin towels, but they were clean; NO BUGS!! (we had fresh fruit from a fruit stand, and the juicy litter from same, and no nasty visitors to help us eat our bounty); attentive management; extra security; very low price for LA; free parking; loud a/c fan (believe me, you want this)Cons:  sketchy neighborhood; REALLY loud road noise (even with the loud a/c fan and a sound machine turned on high, I could still hear the 18 wheelers); separate fee for wi-fi (but unlike another reviewer, I had no problems with the connection); very small room (beds were against the walls.  Thank goodness there were no bugs!); no refrigerator; no counter space in bathroom.Bottom line:  I don't expect much from a Motel 6.  There wasn't anything about the room itself that would have been a deal breaker.  However, my main concern in renting a motel room is that it be safe for me, my family, and also my car.  Like I said, the management is definitely tryng to provide this, but I still would not stay here again. We used the wi-fi to find a better room in a better location, (for a whole lot more money!), and checked out the next day.     More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r100914468-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>100914468</t>
+  </si>
+  <si>
+    <t>03/20/2011</t>
+  </si>
+  <si>
+    <t>Great for the price.</t>
+  </si>
+  <si>
+    <t>This hotel is exactly where you need to stay if you want a clean room at a great price. We are driving from Washington to southern california and wanted a good room for the price but from some of the reviews we were a little weary but it has turned out to be a great hotel. Located in a quiet area, and had a dennys next door which was great for breakfast. We are staying in a 2 full bed smoking room which had no bad aroma when we walked in. The only bad part is there is no fridge or microwave, and the shower is a lil small.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r75181809-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>75181809</t>
+  </si>
+  <si>
+    <t>08/14/2010</t>
+  </si>
+  <si>
+    <t>Well-Run Motel 6</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Motel  6 the night before and after I attended the Lady Gaga concert at the Staples Center in Los Angeles.  Overall, it is a very well-run motel and  you get a lot for the [very reasonable] price.  It has a nice pool, the grounds are well-maintained, and my room was very clean and tidy.  The staff is really on the ball--they even phoned me in my room about a half hour after I checked in to make sure everything was up to standards (it was)!!(This motel illustrates what a great difference good management can make, even in a discount motel.  Contrast this Motel 6 with the Motel 6 in Turlock, CA, where the management is incompetent and disorganized and hence that motel is nothing short of a nightmare.)There is a Denny's right next door which is convenient for breakfast.  Just do not order the orange juice as it is so watered-down it is flavorless.The only downside to this motel is that it is a little difficult to find for those who have never been there before; you CANNOT see the "Motel 6" sign from the freeway.  Just exit on Roxford Street, turn right, turn right again, then proceed about 150 yards or so past a gas station, Denny's, and another motel (all on the right hand side of the road) and this Motel 6 will be on your right.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Motel  6 the night before and after I attended the Lady Gaga concert at the Staples Center in Los Angeles.  Overall, it is a very well-run motel and  you get a lot for the [very reasonable] price.  It has a nice pool, the grounds are well-maintained, and my room was very clean and tidy.  The staff is really on the ball--they even phoned me in my room about a half hour after I checked in to make sure everything was up to standards (it was)!!(This motel illustrates what a great difference good management can make, even in a discount motel.  Contrast this Motel 6 with the Motel 6 in Turlock, CA, where the management is incompetent and disorganized and hence that motel is nothing short of a nightmare.)There is a Denny's right next door which is convenient for breakfast.  Just do not order the orange juice as it is so watered-down it is flavorless.The only downside to this motel is that it is a little difficult to find for those who have never been there before; you CANNOT see the "Motel 6" sign from the freeway.  Just exit on Roxford Street, turn right, turn right again, then proceed about 150 yards or so past a gas station, Denny's, and another motel (all on the right hand side of the road) and this Motel 6 will be on your right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r17024358-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>17024358</t>
+  </si>
+  <si>
+    <t>06/18/2008</t>
+  </si>
+  <si>
+    <t>Would NOT recommend</t>
+  </si>
+  <si>
+    <t>We were looking for a cheap place to stay on our way through LA -- because we were only going to be sleeping there, we figured it would be okay. I have stayed at many a Motel 6 that was fine. This one was not. Yes, area a little sketchy. But they had a TON of security and it felt safe. Close to Hollywood, etc. so the location for the price is good. But, the room was disgusting -- truly. It smelled terrible -- like barely covered over smoke in the bedroom, and like barely covered over sewage in the bathroom. And, most disappointing of all, one of the beds in our room was so warped that it visibly sagged in the middle while the corners were up in the air. So annoying. Really regretted not just paying more for a slightly less convenient location. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>We were looking for a cheap place to stay on our way through LA -- because we were only going to be sleeping there, we figured it would be okay. I have stayed at many a Motel 6 that was fine. This one was not. Yes, area a little sketchy. But they had a TON of security and it felt safe. Close to Hollywood, etc. so the location for the price is good. But, the room was disgusting -- truly. It smelled terrible -- like barely covered over smoke in the bedroom, and like barely covered over sewage in the bathroom. And, most disappointing of all, one of the beds in our room was so warped that it visibly sagged in the middle while the corners were up in the air. So annoying. Really regretted not just paying more for a slightly less convenient location. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r11062940-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>11062940</t>
+  </si>
+  <si>
+    <t>11/25/2007</t>
+  </si>
+  <si>
+    <t>Beware ... somewhat sketchy area</t>
+  </si>
+  <si>
+    <t>We stayed here one night during a Thanksgiving road trip. The motel is located right next to I-5. Our room was on the back side of the motel and you could hear the sound of traffic all night long. The parking lot is guarded at night, and it appears that the area is rather rough, as there are numerous signs posted on the property that lists all the types of illegal activity that are prohibited on the property (e.g., prostitution, drug sales, etc.). The entire property is fenced, with the exception of the entrace driveway. We were required to show IDs for both adults who stayed in the room and the desk clerk made copies of them. The room was very basic, towels were thin and there was no clock in the room. The desk clerk did offer us a wake up call. If it had not been so late at night and during a holiday, we probably would have skipped this place and looked for something a little better. One good thing is that Motel 6 does allow pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>We stayed here one night during a Thanksgiving road trip. The motel is located right next to I-5. Our room was on the back side of the motel and you could hear the sound of traffic all night long. The parking lot is guarded at night, and it appears that the area is rather rough, as there are numerous signs posted on the property that lists all the types of illegal activity that are prohibited on the property (e.g., prostitution, drug sales, etc.). The entire property is fenced, with the exception of the entrace driveway. We were required to show IDs for both adults who stayed in the room and the desk clerk made copies of them. The room was very basic, towels were thin and there was no clock in the room. The desk clerk did offer us a wake up call. If it had not been so late at night and during a holiday, we probably would have skipped this place and looked for something a little better. One good thing is that Motel 6 does allow pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r7149125-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7149125</t>
+  </si>
+  <si>
+    <t>03/11/2007</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>We stayed at the motel 6 in Sylmar, I am a light sleeper and I thought I would not be able to sleep because I-5 runs directly behind the motel, it was not noisy and I slept very well , our room was at the front of the motel so i'm sure that helped. We went to Saugus Swap Meet and shopping in Santa Clarita before we checked in at the motel and the day we checked out we went to the Los Angeles Zoo and it was nice because it was not far from any of the places we went to.</t>
+  </si>
+  <si>
+    <t>March 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1421,2288 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>211</v>
+      </c>
+      <c r="O25" t="s">
+        <v>218</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" t="s">
+        <v>218</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>269</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>275</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>276</v>
+      </c>
+      <c r="O35" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6347</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_552.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_552.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>RobSan6</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>For the price this was not worth it. Very scary place, very noisy and non smoking rooms fill up with smoke. Front desk told me they could not help but gave ne a national number to call. I called the Guest Relations number and was told to deal with the front desk. Front desk refused to talk to me. I ended up the next day having to go to the Emergency Room because of bug bites on my legs, it seems that the room I was in was infested with bed bugs. Called guest relations again but was treated with indifference, they didn't even ask what room I was in or what the cost of my medical treatment was. I was told that this is not normal and I should not let one bad experience sour my Motel 6 impression. I will never stay at a Motel 6 again, got the run around and consistent customer service. The front desk told me that I was free to leave at any time but no refunds would be given.More</t>
   </si>
   <si>
+    <t>mjskre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r561541483-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>The Motel is fenced and there are two armed security guards at the gate. There are postings in front of the Motel about a dog that was stolen by the Motel staff out of a room and Motel 6 did nothing about the situation. I should have taken this as a bad omen. The front desk was like checking in at a courthouse or boarding a plane. The room was dirty, No light bulbs in any of the fixtures, only light was in the bathroom. The tank to the toilet was full of French fries (yes, French fries) and whenever you flushed the toilet the bowl filled up with them. Mattress, bedding and towels are very old and run down. Could almost see through the towels. Water pressure in shower was a trickle (did have hot water though). Security pounded on door at 9:00 PM asking for an Evelyn, wanted to see inside he room (was asleep and in underwear). I have stayed in some bad hotel/motel's before and this makes my top 3. They also make you pay for Wi-Fi.More</t>
   </si>
   <si>
+    <t>ronarevalo75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r554452605-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>This place feels like a prison....I know because I worked at one!1.  Go through the security check where they will ask you everything about your first born, past life, etc.2.  Go through the background check at the front desk where you have the same questions.3.  You have sign and agree to the "house rules" or you won't get a key.4.  Only one entrance and exit (only through the security entrance)5.  You will be questioned by security every time you go in and out.6.  You have to pay for wifi (even McDonalds is free now days!)7.  Dog feces throughout the facility8.  Freeway road noise 24/7More</t>
   </si>
   <si>
+    <t>Marty045</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r536877840-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Margeskk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r533533318-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>Read the 2016 and early 2017 negative reviews; management must have listened and corrected the complaints. Needed to stay in the area and found this to be the one with most descent price. Made reservation and few hours later checked in. I was surprised at the blocked entrance and providing reservation name with guard at the gate. But there was no problem there, he checked, confirmed and let us drive in. Very polite and business like. Found few young men working the check in desk. All very well groomed and polite. The WiFi is only available when one pays for it. Found the room small but 2 double beds with clean sheets and towels and working (limited channels) television. Complimentary coffee in the morning can be found in the lobby. Denny’s at walking distance. Good, clean place if sleep and shower is all that’s needed. More</t>
   </si>
   <si>
+    <t>cmorazamo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r510322174-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>If you are looking for a clean, secure place to sleep, this is it. Also, The staff is corteous and the motel is near a couple of restaurants and a gas station.  The swiming pool is well maintained and there is plenty of parking.  However, there is no microwave or refrigerator in the rooms, bring your own toiletries as the motel only provides bars of soap. The room is big enough to sleep 4 people, 2 adults and 2 kids.  Again the rooms are small but clean and the location is super close to six flags so if you will be spending your day at the park and you only need a place to sleep then this is it.More</t>
   </si>
   <si>
+    <t>Windman69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r479631038-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t>I would not recommend this Hotel! Amenities which are listed as Free are Not Free!! A daily charge for WiFi, Poor Water Pressure, extremely small rooms is just the beginning. Arrogant night clerk with an attitude! This Motel 6 has to be the worst!   Brochures and Posted Ads are fictitious!!More</t>
   </si>
   <si>
+    <t>Shonna2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r467708515-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>Customer service was great but the room was small, floor was not properly swept or mopped blankets had spots on them , they charge extra for two people to be in a room smh, the heat did not work in my room and the bed was not comfortable,  never again will I stay here.More</t>
   </si>
   <si>
+    <t>Eric M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r435884646-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r428990082-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -388,6 +418,9 @@
   </si>
   <si>
     <t>October 2016</t>
+  </si>
+  <si>
+    <t>Kim L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r413992488-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
@@ -421,6 +454,9 @@
 I got the $2.99 WIFI for both my both and laptop so it totaled to $6.00. You...I stayed at this motel from July 24-29, 2016.This Motel 6 is in Sylmar, and located right off the Interstate-5, which is convenient. The motel is located in a run-down area, so it's quite intimating to walk outside at night. There are nearby places such as: Denny's, McDonald's, Chevron, and Mobil gas stations--all are walking distance. The only time I walked outside at night was, to Denny's--the closest place to the motel. The only reason why I decided to walk, was because I saw a large group of people walking there, so I hurriedly and followed them.I chose a non-smoking room and was given the first floor non-smoking room. When I first arrived, the room was clean, but could have been cleaner. There was a foul odor upon entering the room and especially the restroom. I had to to a Target run, to buy some glade and lighten up the odor for stay here. There are no refrigerator or microwave. So you get what you pay for...There is daily house keeping. There is no free WIFI. You have to purchase WIFI. There are two options, which ranges from $2.99 to $5.99 per day. This options is applied to each electronic. So if you want wifi for both your phone and laptop, then it's going to cost you twice the price.I got the $2.99 WIFI for both my both and laptop so it totaled to $6.00. You multiple $6.00 by 5 and that's $30.00 for my one week stay. I had to buy WIFI every single day, since I didn't want to overuse my data. I felt safe staying here, when I noticed that firefighters were also staying here. I saw their fire trucks parked outside at night. I also saw them checking-in, as I was in line to purchase my daily WIFI. There was a fire near this motel, which you could see if you stand outside. All in all, I would say only stay at this place only if you have absolutely no where else to stay. I only stayed here because I was on a budget, and it was closer to my designated location. If you are able to afford a better place than Motel 6, then by all means go somewhere else.More</t>
   </si>
   <si>
+    <t>76JenniferR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r407288442-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -439,6 +475,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>qeval2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r378605694-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -460,6 +499,9 @@
     <t>I always stay at Motel 6 as i know the quality is high all across the board.  However, my experience at the Sylmar CA Motel 6 on 31-May-2016 was appalling.  There are 2 things I will not tolerate, #1 is bed bugs, #2 is roaches.  I found a roach crawling this morning and smashed it on the door.There are things that are beyond the control of the hotel such as the woman last night upstairs shouting at top of her lungs upstairs, the obnoxious passerby my window that was extremely loud, and the noise from the other room through the double inside doors.  But bugs are absolutely not tolerated in a chain that I know has a high standard at all locations.More</t>
   </si>
   <si>
+    <t>Dree411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r358692002-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -481,6 +523,9 @@
     <t>The room wasn't terrible, but includes pretty much nothing. It's trying to be an upscale room with wood floors and more hip furnishings. There is no hair dryer on site, no fridge in the rooms, parking is free, you have to pay per day for the internet, free coffee in the am, washer/dryer on site. The water pressure is crap, but if you take the shower head off it's greatly improved. Just an expensive room to stay in. The facility is the biggest I've seen, and inside a fenced in area. They do require a driver's license of everyone in the room, which is California standards, and need the license plate of your car. The interactions of the staff were fairly decent.More</t>
   </si>
   <si>
+    <t>vj8902</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r333276702-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -499,6 +544,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>skylarroth212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r304523849-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -517,6 +565,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>G. P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r288052117-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -544,6 +595,9 @@
     <t>The Motel 6 has renovated rooms with somewhat clean sheets/beddings, flat-screen TV, &amp; clean towels; however, No fridge, No iron, No microwave and No Wifi. The neighborhood is SUPER sketchy and ghetto. In order to avoid any unforseen robbery or mishap try going out during day light. More</t>
   </si>
   <si>
+    <t>phuocn491</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r279648451-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -562,6 +616,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>LisaO471</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r261070212-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -583,6 +640,9 @@
     <t>Tip for the management: Don't train new employees on Friday, Saturday or Sunday. You're just too busy for that and it slows down everyone and everything.Use fabric softener - it comes unscented! - because your towels are like sandpaper - 80 grit too. Inform the entire staff about late AARP checkout AND inform them of who has it so I don't get disturbed twice by housekeepers asking if I'm leaving or staying another day! Electric outlet in the bathroom didn't work...that means you're not checking things regularly. It's not the guest's responsibility to report things like that...it's yours to make sure everything works.Soda machine didn't work but that seems to be par for the course at most Motel 6.You need bigger showers...I've seen bigger and nicer ones in motor homes.Staff was friendly...I'll give you that. I wouldn't stay here more than one night and not even that if you can avoid it.More</t>
   </si>
   <si>
+    <t>aseebee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r246702533-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -598,6 +658,9 @@
     <t>Staying at this motel is like trying to pick up poop by the clean end.  If you like foul smells, disgusting  tattered sheets and if you consider gobs of hair that is not youe own a bonus then this is the place for you!   Here's a helpful tip.  Just sleep in the grass along the freeway. It's probably cleaner.  But if you risk it, please make sure that your shots are up to date.  We stayed for 2 hours and couldn't handle it.  Gross.  Gross. Gross.</t>
   </si>
   <si>
+    <t>CLBrown67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r230350747-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -623,6 +686,9 @@
   </si>
   <si>
     <t>We stayed for one night - the hotel is not is a very nice area, and there are homeless people roaming the parking lot.  The room was very small, with 2 double beds for 4 adults - and although we requested WIFI, we were told "We're out" - The room was clean, and in good condition, just very small for 4 people.More</t>
+  </si>
+  <si>
+    <t>Turbogaming</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r208269081-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
@@ -656,6 +722,9 @@
 One would think the rooms would be extremely inexpensive because of this...I spoke to a rep over the phone booked a room early in the week for the weekend. After driving for 8 hours I arrived and found someone botched up the reservation and gave away the non smoking rooms. I spoke to customer service who argued with me and said I HAD TO MAKE A SPECIAL REQUEST FOR "NO SMOKING" to get a no smoking room! Motel 6 is in the business of booking rooms. It's a pretty easy job, one that computers do. In this case they managed to complicate and bunge this process up. Even though I have precious little ones we made a go of staying because it was LATE and the nearest motel with vacancy was roughly an hour away. The room reeked of smoke down to the very core. We had to leave the window open the entire night and even then we were sneezing and coughing the next morning. We had to pack everything in the car to be considered for a non smoking room for the next night. Be sure to make a special request for non smoking if you stay here or you might wind in a late night tragedy like me.The rooms are extremely tiny - the double beds butt up against the wall and windows and they charge for wifi. There is no carpet, or any frills.One would think the rooms would be extremely inexpensive because of this - guess again.More</t>
   </si>
   <si>
+    <t>Charli J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r186486592-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -677,6 +746,9 @@
     <t>Family of 4 2 adults 12 and 10 year old kids. Location was about 10 miles south  of Six Flags Magic Mountain. 1 major hill to cross to get to and from the park. My Motel 6 comments--hotel appears to have recently been updated. Fresh paint. Staff was polite and security patrolling the grounds. Downside--you get what you pay for--Flat hard pillows, 2 wash clothes are all we were allowed on day 2 and 3 (there were 4 of us), while taking a shower the water would turn ICE cold, found a cock roach in the bathroom--Hubby killed and flushed it, room was hot, air/heat fan was loud and necessary to cool room at 3am I finally opened the window and door, IN NOVEMBER!!  Overall--We spent 8 nights in a different Motel 6 each night and in 6 different states on my families Grand Canyon vacation in March 2013. None of those locations were as uncomfortable as this location.More</t>
   </si>
   <si>
+    <t>turhanwoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r184812978-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -710,6 +782,9 @@
     <t>The room is clean. However my husband saw A bug, couldn't figure out where it came from or where it went to. The front desk staff are professional.  Next time passing through this area &amp; need a place to stay, I will check into this place.</t>
   </si>
   <si>
+    <t>38Alan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r168567189-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -728,6 +803,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Tabatha K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r165783651-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -744,6 +822,9 @@
   </si>
   <si>
     <t>June 2013</t>
+  </si>
+  <si>
+    <t>WWEGuy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r138153791-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
@@ -773,6 +854,9 @@
 We did consider checking out and relocating a little closer to downtown for the last couple of nights, but in the end decided against it as we were so happy with the room and it was easier to drive another 10 - 15 minutes than risk checking in somewhere else and not being as happy. Safe...My brother and I ended up here on our way up from Buena Vista towards Six Flags Magic Mountain. It was a late night find thanks to McDonald's free Wifi just as I was about ready to pass out. Having read the reviews on here, expected the worst but couldn't fault it and ended up staying 5 nights in total and using this as our base for Six Flags, Universal, a self-driven tour of Greater LA and a stop-off before heading up Highway 1.Two clean, comfortable double beds in a recently redecorated bedroom with a good-sized shower-room and decent tv. Paid wifi internet ($3 for 24 hours) was quick and secure.Didn't use the pool, did hear that someone else had their car broken into on our first night (I believe they'd left a skateboard on the back seat) but we had no such problems. Upon arrival around midnight, there was a security guard based near the car-park entrance and so that was where we parked, with nothing left on show in the car: it's basic common sense and what I'd do anywhere.We did consider checking out and relocating a little closer to downtown for the last couple of nights, but in the end decided against it as we were so happy with the room and it was easier to drive another 10 - 15 minutes than risk checking in somewhere else and not being as happy. Safe to say, we'd stay there again if we were looking to visit the same areas.More</t>
   </si>
   <si>
+    <t>Richstief</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r134394503-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -801,6 +885,9 @@
   </si>
   <si>
     <t>Cockroach was a small oneOnly two small towels for three peopleSmall room I think I'll pay a little more next time No wonder it's the only vacancy I could find</t>
+  </si>
+  <si>
+    <t>An0nM0m</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r112367885-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
@@ -827,6 +914,9 @@
 Bottom line:  I don't expect much from a Motel 6.  There wasn't anything about the room itself that...Considering the neighborhood problems, this motel is not bad.  You can tell that they are trying. The motel is surrounded by a chain-link fence, and there is a security guard on duty at night.  When I saw the disclaimers on the rental agreement, I asked the clerk what sorts of things went on there.  He shrugged and gave me a telling look. I said, "I probably don't want to know!" He said, "No, probably not.". (I was just too tired to look further for a better place. I got a room upstairs for more safety, and removed EVERYTHING from my car.)Pros:  clean room &amp; bath; typical small, thin towels, but they were clean; NO BUGS!! (we had fresh fruit from a fruit stand, and the juicy litter from same, and no nasty visitors to help us eat our bounty); attentive management; extra security; very low price for LA; free parking; loud a/c fan (believe me, you want this)Cons:  sketchy neighborhood; REALLY loud road noise (even with the loud a/c fan and a sound machine turned on high, I could still hear the 18 wheelers); separate fee for wi-fi (but unlike another reviewer, I had no problems with the connection); very small room (beds were against the walls.  Thank goodness there were no bugs!); no refrigerator; no counter space in bathroom.Bottom line:  I don't expect much from a Motel 6.  There wasn't anything about the room itself that would have been a deal breaker.  However, my main concern in renting a motel room is that it be safe for me, my family, and also my car.  Like I said, the management is definitely tryng to provide this, but I still would not stay here again. We used the wi-fi to find a better room in a better location, (for a whole lot more money!), and checked out the next day.     More</t>
   </si>
   <si>
+    <t>2CachePirates</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r100914468-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -842,6 +932,9 @@
     <t>This hotel is exactly where you need to stay if you want a clean room at a great price. We are driving from Washington to southern california and wanted a good room for the price but from some of the reviews we were a little weary but it has turned out to be a great hotel. Located in a quiet area, and had a dennys next door which was great for breakfast. We are staying in a 2 full bed smoking room which had no bad aroma when we walked in. The only bad part is there is no fridge or microwave, and the shower is a lil small.</t>
   </si>
   <si>
+    <t>sierrapaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r75181809-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -863,6 +956,9 @@
     <t>I recently stayed at this Motel  6 the night before and after I attended the Lady Gaga concert at the Staples Center in Los Angeles.  Overall, it is a very well-run motel and  you get a lot for the [very reasonable] price.  It has a nice pool, the grounds are well-maintained, and my room was very clean and tidy.  The staff is really on the ball--they even phoned me in my room about a half hour after I checked in to make sure everything was up to standards (it was)!!(This motel illustrates what a great difference good management can make, even in a discount motel.  Contrast this Motel 6 with the Motel 6 in Turlock, CA, where the management is incompetent and disorganized and hence that motel is nothing short of a nightmare.)There is a Denny's right next door which is convenient for breakfast.  Just do not order the orange juice as it is so watered-down it is flavorless.The only downside to this motel is that it is a little difficult to find for those who have never been there before; you CANNOT see the "Motel 6" sign from the freeway.  Just exit on Roxford Street, turn right, turn right again, then proceed about 150 yards or so past a gas station, Denny's, and another motel (all on the right hand side of the road) and this Motel 6 will be on your right.More</t>
   </si>
   <si>
+    <t>redirtgurl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r17024358-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -884,6 +980,9 @@
     <t>We were looking for a cheap place to stay on our way through LA -- because we were only going to be sleeping there, we figured it would be okay. I have stayed at many a Motel 6 that was fine. This one was not. Yes, area a little sketchy. But they had a TON of security and it felt safe. Close to Hollywood, etc. so the location for the price is good. But, the room was disgusting -- truly. It smelled terrible -- like barely covered over smoke in the bedroom, and like barely covered over sewage in the bathroom. And, most disappointing of all, one of the beds in our room was so warped that it visibly sagged in the middle while the corners were up in the air. So annoying. Really regretted not just paying more for a slightly less convenient location. Never again.More</t>
   </si>
   <si>
+    <t>CailTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r11062940-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -903,6 +1002,9 @@
   </si>
   <si>
     <t>We stayed here one night during a Thanksgiving road trip. The motel is located right next to I-5. Our room was on the back side of the motel and you could hear the sound of traffic all night long. The parking lot is guarded at night, and it appears that the area is rather rough, as there are numerous signs posted on the property that lists all the types of illegal activity that are prohibited on the property (e.g., prostitution, drug sales, etc.). The entire property is fenced, with the exception of the entrace driveway. We were required to show IDs for both adults who stayed in the room and the desk clerk made copies of them. The room was very basic, towels were thin and there was no clock in the room. The desk clerk did offer us a wake up call. If it had not been so late at night and during a holiday, we probably would have skipped this place and looked for something a little better. One good thing is that Motel 6 does allow pets.More</t>
+  </si>
+  <si>
+    <t>2CHIHUAHUAS</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82304-r7149125-Motel_6_Los_Angeles_Sylmar-Los_Angeles_California.html</t>
@@ -1425,43 +1527,47 @@
       <c r="A2" t="n">
         <v>6347</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1479,56 +1585,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6347</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1546,56 +1656,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6347</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1613,56 +1727,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6347</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1676,50 +1794,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6347</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1733,50 +1855,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6347</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1796,50 +1922,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6347</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1851,56 +1981,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6347</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1912,56 +2046,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6347</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1981,50 +2119,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6347</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2044,50 +2186,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6347</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2107,50 +2253,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6347</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2164,50 +2314,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6347</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2223,50 +2377,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6347</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2284,50 +2442,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6347</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2341,50 +2503,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6347</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2398,50 +2564,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>6347</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2453,56 +2623,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>6347</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2526,50 +2700,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>6347</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2589,41 +2767,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>6347</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -2652,50 +2834,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>6347</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2711,56 +2897,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>6347</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2784,50 +2974,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>6347</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2851,50 +3045,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>6347</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -2918,41 +3116,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>6347</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -2981,50 +3183,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>6347</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>248</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3048,50 +3254,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>6347</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3115,50 +3325,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6347</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>262</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="J29" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3182,41 +3396,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>6347</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="J30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -3245,41 +3463,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>6347</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
@@ -3308,41 +3530,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>6347</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K32" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3371,41 +3597,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>6347</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>288</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -3434,50 +3664,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>6347</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>294</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3501,50 +3735,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>6347</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3566,50 +3804,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>6347</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -3633,50 +3875,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>6347</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3700,7 +3946,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
